--- a/research/check_traveltimes_vs_removal_mpw_class_analysisSR.xlsx
+++ b/research/check_traveltimes_vs_removal_mpw_class_analysisSR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sutra2_tool\sutra2\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B4FA2E-0795-4AA4-8D84-C262F3719E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3797AF-015A-430D-BE15-363091F662FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95074E66-921F-4ED7-9924-17ED5466F95C}"/>
   </bookViews>
@@ -27876,8 +27876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958ECF5D-05D6-4E44-BA6B-C36B2285C8D9}">
   <dimension ref="A1:V392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
